--- a/bases/escalacoes.xlsx
+++ b/bases/escalacoes.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="338">
   <si>
     <t>escalacao</t>
   </si>
@@ -994,6 +994,42 @@
   </si>
   <si>
     <t>81, Jonathan Jesus, João Marcelo</t>
+  </si>
+  <si>
+    <t>Cássio, William, Fabricio Bruno, Lucas Villalba, Kaiki, Lucas Romero, Lucas Silva, Christian, Matheus Henrique, Matheus Pereira, Kaio Jorge</t>
+  </si>
+  <si>
+    <t>80, Christian, Luis Sinisterra</t>
+  </si>
+  <si>
+    <t>87, Kaio Jorge, Gabigol</t>
+  </si>
+  <si>
+    <t>87, Matheus Pereira, Kauã Moraes</t>
+  </si>
+  <si>
+    <t>87, Matheus Henrique, Eduardo</t>
+  </si>
+  <si>
+    <t>Cássio, Kauã Moraes, Jonathan Jesus, Lucas Villalba, Kaiki, Lucas Silva, Matheus Henrique, Eduardo, Matheus Pereira, Keny Arroyo, Gabigol</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>16, Matheus Henrique, Christian</t>
+  </si>
+  <si>
+    <t>55, Jonathan Jesus, Luis Sinisterra</t>
+  </si>
+  <si>
+    <t>55, Lucas Silva, João Marcelo</t>
+  </si>
+  <si>
+    <t>79, Kauã Moraes, Marquinhos</t>
+  </si>
+  <si>
+    <t>79, Christian, Ryan Guilherme</t>
   </si>
 </sst>
 </file>
@@ -1360,10 +1396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L48"/>
+  <dimension ref="A1:L50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I29" workbookViewId="0">
-      <selection activeCell="K48" sqref="K48"/>
+    <sheetView tabSelected="1" topLeftCell="I32" workbookViewId="0">
+      <selection activeCell="K50" sqref="K50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2812,6 +2848,61 @@
       </c>
       <c r="K48" t="s">
         <v>325</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>326</v>
+      </c>
+      <c r="G49" t="s">
+        <v>327</v>
+      </c>
+      <c r="H49" t="s">
+        <v>328</v>
+      </c>
+      <c r="I49" t="s">
+        <v>329</v>
+      </c>
+      <c r="J49" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>331</v>
+      </c>
+      <c r="C50" t="s">
+        <v>35</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="F50">
+        <v>41</v>
+      </c>
+      <c r="G50" t="s">
+        <v>333</v>
+      </c>
+      <c r="H50" t="s">
+        <v>334</v>
+      </c>
+      <c r="I50" t="s">
+        <v>335</v>
+      </c>
+      <c r="J50" t="s">
+        <v>336</v>
+      </c>
+      <c r="K50" t="s">
+        <v>337</v>
       </c>
     </row>
   </sheetData>
